--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -29,6 +29,84 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Start Time of Booking</t>
+  </si>
+  <si>
+    <t>End Time of Booking</t>
+  </si>
+  <si>
+    <t>Number of hours of Booking</t>
+  </si>
+  <si>
+    <t>Auto from End-Start times</t>
+  </si>
+  <si>
+    <t>Clients Name</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Time booking Entered</t>
+  </si>
+  <si>
+    <t>DateTime Autofield</t>
+  </si>
+  <si>
+    <t>Time booking Last Updated</t>
+  </si>
+  <si>
+    <t>Client Address</t>
+  </si>
+  <si>
+    <t>LongText</t>
+  </si>
+  <si>
+    <t>Room Booking Ref Number</t>
+  </si>
+  <si>
+    <t>Autoincrement</t>
+  </si>
+  <si>
+    <t>Catering Required</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Catering</t>
+  </si>
+  <si>
+    <t>Room Requested</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Room Requirements</t>
+  </si>
+  <si>
+    <t>Tickboxes</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Assets</t>
   </si>
 </sst>
 </file>
@@ -355,20 +433,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -377,6 +455,149 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -389,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="SQL Table" sheetId="2" r:id="rId2"/>
+    <sheet name="Domain Names" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -107,6 +108,102 @@
   </si>
   <si>
     <t>Assets</t>
+  </si>
+  <si>
+    <t>Last Booked</t>
+  </si>
+  <si>
+    <t>Charity Discount</t>
+  </si>
+  <si>
+    <t>Special Price Agreed</t>
+  </si>
+  <si>
+    <t>Special Price</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Delegates</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>MD5</t>
+  </si>
+  <si>
+    <t>Entered By</t>
+  </si>
+  <si>
+    <t>Auto Text</t>
+  </si>
+  <si>
+    <t>Aiuto Text</t>
+  </si>
+  <si>
+    <t>Last Updated By</t>
+  </si>
+  <si>
+    <t>Changelog</t>
+  </si>
+  <si>
+    <t>Auto LongText</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Core/Customer/Catering</t>
+  </si>
+  <si>
+    <t>Booking Price</t>
+  </si>
+  <si>
+    <t>Catering Price</t>
+  </si>
+  <si>
+    <t>spacebuddy.org</t>
+  </si>
+  <si>
+    <t>spacetobook.co.uk</t>
+  </si>
+  <si>
+    <t>zonebuddy.co.uk</t>
+  </si>
+  <si>
+    <t>zonebuddy.org</t>
+  </si>
+  <si>
+    <t>areabuddy.net</t>
+  </si>
+  <si>
+    <t>zonebud.com</t>
+  </si>
+  <si>
+    <t>area-mate.com</t>
+  </si>
+  <si>
+    <t>areabud.com</t>
+  </si>
+  <si>
+    <t>Neil</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>3rd Party</t>
   </si>
 </sst>
 </file>
@@ -433,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +541,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -525,10 +623,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -536,21 +634,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -558,10 +656,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -569,35 +667,189 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -616,4 +868,80 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL Table" sheetId="2" r:id="rId2"/>
-    <sheet name="Domain Names" sheetId="3" r:id="rId3"/>
+    <sheet name="Core SQL Table" sheetId="2" r:id="rId2"/>
+    <sheet name="Customer SQL Table" sheetId="4" r:id="rId3"/>
+    <sheet name="Catering SQL Table" sheetId="5" r:id="rId4"/>
+    <sheet name="Assets SQL Table" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -149,9 +151,6 @@
     <t>Auto Text</t>
   </si>
   <si>
-    <t>Aiuto Text</t>
-  </si>
-  <si>
     <t>Last Updated By</t>
   </si>
   <si>
@@ -173,37 +172,85 @@
     <t>Catering Price</t>
   </si>
   <si>
-    <t>spacebuddy.org</t>
-  </si>
-  <si>
-    <t>spacetobook.co.uk</t>
-  </si>
-  <si>
-    <t>zonebuddy.co.uk</t>
-  </si>
-  <si>
-    <t>zonebuddy.org</t>
-  </si>
-  <si>
-    <t>areabuddy.net</t>
-  </si>
-  <si>
-    <t>zonebud.com</t>
-  </si>
-  <si>
-    <t>area-mate.com</t>
-  </si>
-  <si>
-    <t>areabud.com</t>
-  </si>
-  <si>
-    <t>Neil</t>
-  </si>
-  <si>
-    <t>Dave</t>
-  </si>
-  <si>
-    <t>3rd Party</t>
+    <t>sTime</t>
+  </si>
+  <si>
+    <t>eTime</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>rTime</t>
+  </si>
+  <si>
+    <t>sMember</t>
+  </si>
+  <si>
+    <t>rLast</t>
+  </si>
+  <si>
+    <t>lMember</t>
+  </si>
+  <si>
+    <t>cLog</t>
+  </si>
+  <si>
+    <t>rNum</t>
+  </si>
+  <si>
+    <t>cPrice</t>
+  </si>
+  <si>
+    <t>catering</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>charity</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>cFoods</t>
+  </si>
+  <si>
+    <t>roomAdd</t>
+  </si>
+  <si>
+    <t>cSpec</t>
+  </si>
+  <si>
+    <t>cSpecPrice</t>
+  </si>
+  <si>
+    <t>cOrg</t>
+  </si>
+  <si>
+    <t>cDel</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>bPrice</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>bLast</t>
   </si>
 </sst>
 </file>
@@ -532,13 +579,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" activeCellId="2" sqref="A16 A17 A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -559,6 +606,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -570,6 +620,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -581,6 +634,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -592,6 +648,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -603,6 +662,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -611,6 +673,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -622,6 +687,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -633,6 +701,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -644,28 +715,37 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
       <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -677,6 +757,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -688,6 +771,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -699,6 +785,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -710,6 +799,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -720,7 +812,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -731,7 +826,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -742,7 +840,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -753,7 +854,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
@@ -764,7 +868,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
@@ -775,7 +882,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -786,7 +896,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
@@ -797,7 +910,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
@@ -808,7 +924,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -819,20 +938,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
@@ -841,9 +966,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -860,88 +988,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Revision</t>
   </si>
   <si>
-    <t>Core/Customer/Catering</t>
-  </si>
-  <si>
     <t>Booking Price</t>
   </si>
   <si>
@@ -251,6 +248,15 @@
   </si>
   <si>
     <t>bLast</t>
+  </si>
+  <si>
+    <t>changes</t>
+  </si>
+  <si>
+    <t>Changes Made</t>
+  </si>
+  <si>
+    <t>Core/Customer/Catering/Assets</t>
   </si>
 </sst>
 </file>
@@ -577,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" activeCellId="2" sqref="A16 A17 A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +594,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -607,7 +613,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -621,7 +627,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -635,7 +641,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -649,7 +655,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -663,7 +669,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -674,7 +680,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -688,7 +694,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -702,7 +708,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -716,7 +722,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -730,7 +736,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -744,7 +750,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -758,7 +764,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -772,7 +778,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -786,7 +792,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -800,7 +806,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -814,7 +820,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -828,7 +834,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -842,7 +848,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -856,7 +862,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -870,7 +876,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -884,7 +890,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -898,7 +904,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -912,7 +918,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -926,7 +932,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -940,7 +946,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
@@ -949,15 +955,15 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
@@ -968,16 +974,30 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -988,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,54 +1033,57 @@
     <col min="16" max="16" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" t="s">
-        <v>70</v>
+      <c r="Q1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1070,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,27 +1109,30 @@
     <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
         <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1116,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,15 +1155,18 @@
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1147,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,15 +1189,18 @@
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>Core/Customer/Catering/Assets</t>
+  </si>
+  <si>
+    <t>changeType</t>
+  </si>
+  <si>
+    <t>What type of change</t>
   </si>
 </sst>
 </file>
@@ -583,15 +589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
@@ -1000,6 +1006,20 @@
         <v>77</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1008,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,9 +1051,10 @@
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1084,6 +1105,9 @@
       </c>
       <c r="Q1" t="s">
         <v>75</v>
+      </c>
+      <c r="R1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1093,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,9 +1131,10 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1133,6 +1158,9 @@
       </c>
       <c r="H1" t="s">
         <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1142,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,9 +1181,10 @@
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1167,6 +1196,9 @@
       </c>
       <c r="D1" t="s">
         <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1176,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,9 +1219,10 @@
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1201,6 +1234,9 @@
       </c>
       <c r="D1" t="s">
         <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>What type of change</t>
+  </si>
+  <si>
+    <t>loginAttempts</t>
+  </si>
+  <si>
+    <t>Login Attempt Counter</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
@@ -597,7 +603,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
@@ -1018,6 +1024,20 @@
       </c>
       <c r="D30" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
